--- a/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
+++ b/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
@@ -11,9 +11,6 @@
     <sheet name="Government Capacity Projections" sheetId="3" r:id="rId2"/>
     <sheet name="BPMCCS" sheetId="2" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -78,15 +75,9 @@
     <t>natural gas peaker (MW)</t>
   </si>
   <si>
-    <t>Sistema de Información Energética</t>
-  </si>
-  <si>
     <t>Capacidad efectiva por tecnología</t>
   </si>
   <si>
-    <t>Sector eléctrico</t>
-  </si>
-  <si>
     <t>http://sie.energia.gob.mx/bdiController.do?action=cuadro&amp;subAction=applyOptions</t>
   </si>
   <si>
@@ -142,6 +133,12 @@
   </si>
   <si>
     <t>"Government Capacity Projections" tab.</t>
+  </si>
+  <si>
+    <t>Sistema de Información Energética, Sector eléctrico</t>
+  </si>
+  <si>
+    <t>SENER</t>
   </si>
 </sst>
 </file>
@@ -210,7 +207,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -221,6 +217,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -238,79 +235,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Gov Cap Projection"/>
-      <sheetName val="EPS Cap"/>
-      <sheetName val="Comparison"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="G3">
-            <v>4078.2509999999997</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>55442.168999999994</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>5511.1500000000005</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>17856.126</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="G7">
-            <v>13998.321</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="G8">
-            <v>1873.7910000000002</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="G9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="G10">
-            <v>330.66899999999998</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="G11">
-            <v>2314.683</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="G12">
-            <v>3527.1360000000004</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="G13">
-            <v>3637.3589999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -600,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,98 +542,95 @@
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
+      <c r="B3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" t="s">
-        <v>21</v>
+      <c r="B4" s="4">
+        <v>2016</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="5">
-        <v>2016</v>
+      <c r="B5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
+      <c r="B7" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
+      <c r="A10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -725,118 +646,108 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
-        <v>35</v>
+      <c r="B1" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="6">
-        <f>'[1]Gov Cap Projection'!G3</f>
+        <v>21</v>
+      </c>
+      <c r="B2" s="5">
         <v>4078.2509999999997</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="6">
-        <f>'[1]Gov Cap Projection'!G4</f>
+        <v>22</v>
+      </c>
+      <c r="B3" s="5">
         <v>55442.168999999994</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="6">
-        <f>'[1]Gov Cap Projection'!G5</f>
+        <v>23</v>
+      </c>
+      <c r="B4" s="5">
         <v>5511.1500000000005</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="6">
-        <f>'[1]Gov Cap Projection'!G6</f>
+        <v>24</v>
+      </c>
+      <c r="B5" s="5">
         <v>17856.126</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="6">
-        <f>'[1]Gov Cap Projection'!G7</f>
+        <v>25</v>
+      </c>
+      <c r="B6" s="5">
         <v>13998.321</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="6">
-        <f>'[1]Gov Cap Projection'!G8</f>
+        <v>26</v>
+      </c>
+      <c r="B7" s="5">
         <v>1873.7910000000002</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="6">
-        <f>'[1]Gov Cap Projection'!G9</f>
+        <v>27</v>
+      </c>
+      <c r="B8" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="6">
-        <f>'[1]Gov Cap Projection'!G10</f>
+        <v>28</v>
+      </c>
+      <c r="B9" s="5">
         <v>330.66899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="6">
-        <f>'[1]Gov Cap Projection'!G11</f>
+        <v>29</v>
+      </c>
+      <c r="B10" s="5">
         <v>2314.683</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="6">
-        <f>'[1]Gov Cap Projection'!G12</f>
+        <v>30</v>
+      </c>
+      <c r="B11" s="5">
         <v>3527.1360000000004</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="6">
-        <f>'[1]Gov Cap Projection'!G13</f>
+        <v>31</v>
+      </c>
+      <c r="B12" s="5">
         <v>3637.3589999999999</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="8">
+      <c r="A13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="7">
         <f>SUM(B2:B12)</f>
         <v>108569.65499999998</v>
       </c>
